--- a/new.xlsx
+++ b/new.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <sheets>
-    <sheet name="mySheetName" sheetId="1" r:id="rId1"/>
+    <sheet name="__data" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -372,49 +372,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:D3"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>商品销量</v>
+        <v>商品销量明细</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>商品名称</v>
-      </c>
-      <c r="B2" t="str">
-        <v>供应商</v>
-      </c>
-      <c r="C2" t="str">
-        <v>网点名称</v>
-      </c>
-      <c r="D2" t="str">
-        <v>合计</v>
-      </c>
-      <c r="G2" t="str">
-        <v>备注</v>
+        <v>营业日期</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <v>商品名称</v>
+      </c>
+      <c r="B3" t="str">
+        <v>供应商</v>
+      </c>
+      <c r="C3" t="str">
+        <v>网点名称</v>
+      </c>
       <c r="D3" t="str">
-        <v>采购数量</v>
-      </c>
-      <c r="E3" t="str">
-        <v>销售数量</v>
-      </c>
-      <c r="F3" t="str">
-        <v>损耗数量</v>
+        <v>合计</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:G4"/>
   </mergeCells>
 </worksheet>
 </file>